--- a/db_schema/DB_GEXKZ.xlsx
+++ b/db_schema/DB_GEXKZ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Field</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>c2u_id</t>
+  </si>
+  <si>
+    <t>console_logo_url</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +826,14 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/db_schema/DB_GEXKZ.xlsx
+++ b/db_schema/DB_GEXKZ.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Game" sheetId="2" r:id="rId2"/>
     <sheet name="Console" sheetId="10" r:id="rId3"/>
-    <sheet name="Console to User (M to M)" sheetId="11" r:id="rId4"/>
-    <sheet name="User to Game (M to M)" sheetId="3" r:id="rId5"/>
-    <sheet name="Comments" sheetId="4" r:id="rId6"/>
+    <sheet name="UserToGame" sheetId="3" r:id="rId4"/>
+    <sheet name="UserComment" sheetId="4" r:id="rId5"/>
+    <sheet name="GameComment" sheetId="12" r:id="rId6"/>
     <sheet name="Cities" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Field</t>
   </si>
@@ -58,21 +59,12 @@
     <t>rules</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Bigint</t>
-  </si>
-  <si>
     <t>telegram</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>imageurl</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -82,33 +74,9 @@
     <t>banned</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>likes</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>game_id</t>
-  </si>
-  <si>
-    <t>city_id</t>
-  </si>
-  <si>
-    <t>cityname</t>
-  </si>
-  <si>
-    <t>u2g_id</t>
-  </si>
-  <si>
-    <t>pk</t>
-  </si>
-  <si>
-    <t>sk</t>
-  </si>
-  <si>
     <t>fk</t>
   </si>
   <si>
@@ -118,12 +86,6 @@
     <t>phone_nubmer</t>
   </si>
   <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -133,77 +95,106 @@
     <t>about</t>
   </si>
   <si>
-    <t>console_id</t>
-  </si>
-  <si>
-    <t>console_name</t>
-  </si>
-  <si>
-    <t>console_description</t>
-  </si>
-  <si>
-    <t>comment_id</t>
-  </si>
-  <si>
-    <t>comment_message</t>
-  </si>
-  <si>
-    <t>comment_number</t>
-  </si>
-  <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>is_game_comment</t>
-  </si>
-  <si>
-    <t>is_user_comment</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <r>
-      <t>game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_id</t>
-    </r>
-  </si>
-  <si>
-    <t>c2u_id</t>
-  </si>
-  <si>
-    <t>console_logo_url</t>
+    <t>date_registred</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>CharField(100)</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>CharField(30)</t>
+  </si>
+  <si>
+    <t>PositiveIntegerField</t>
+  </si>
+  <si>
+    <t>console</t>
+  </si>
+  <si>
+    <t>model.Console</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>logo_url</t>
+  </si>
+  <si>
+    <t>CharField(40)</t>
+  </si>
+  <si>
+    <t>model.User</t>
+  </si>
+  <si>
+    <t>m2m</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>is_wanted</t>
+  </si>
+  <si>
+    <t>is_owner</t>
+  </si>
+  <si>
+    <t>BooleanField</t>
+  </si>
+  <si>
+    <t>models.User</t>
+  </si>
+  <si>
+    <t>models.Game</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>models.Console</t>
+  </si>
+  <si>
+    <t>CharField(20)</t>
+  </si>
+  <si>
+    <t>DateTimeField</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>models.City</t>
+  </si>
+  <si>
+    <t>CharField(ch=USER_RULES size=1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -235,11 +226,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -318,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -353,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -529,20 +513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,154 +537,164 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,66 +705,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -779,19 +759,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,39 +783,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -843,19 +816,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,37 +840,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -905,16 +900,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,163 +924,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1090,17 +957,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,23 +978,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
